--- a/docs/odh/shr-core-Condition-model.xlsx
+++ b/docs/odh/shr-core-Condition-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="112">
   <si>
     <t>Path</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>The type, kind, or class of this item.</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/odh/shr/core/vs/ConditionCategoryVS</t>
@@ -1892,11 +1895,11 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>36</v>
@@ -1931,7 +1934,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1954,13 +1957,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2011,7 +2014,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2028,7 +2031,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2054,10 +2057,10 @@
         <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2088,7 +2091,7 @@
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>36</v>
@@ -2106,7 +2109,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2123,7 +2126,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2149,10 +2152,10 @@
         <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2183,10 +2186,10 @@
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2201,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2241,13 +2244,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2283,7 +2286,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2298,7 +2301,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2315,7 +2318,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2338,13 +2341,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2380,7 +2383,7 @@
         <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -2395,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -2412,7 +2415,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2435,13 +2438,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2477,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>36</v>
@@ -2492,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2509,7 +2512,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2532,13 +2535,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2589,7 +2592,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2606,7 +2609,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2629,13 +2632,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2686,7 +2689,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>

--- a/docs/odh/shr-core-Condition-model.xlsx
+++ b/docs/odh/shr-core-Condition-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$24</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="114">
   <si>
     <t>Path</t>
   </si>
@@ -145,7 +145,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -162,10 +162,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Condition-model.implicitRules</t>
   </si>
   <si>
@@ -179,7 +175,7 @@
     <t>shr-core-Condition-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -201,31 +197,35 @@
     <t>shr-core-Condition-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>Business identifier or external id for this resource.</t>
   </si>
   <si>
-    <t>shr-core-Condition-model.patientSubjectOfRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model]]}
+    <t>shr-core-Condition-model.subjectOfRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
 </t>
   </si>
   <si>
-    <t>The SubjectOfRecord when restricted to being a Patient resource.</t>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.
+Note that the word 'Subject' is used here in the sense of a person or entity subjected to observations or actions, not subject as in a conceptual topic, like heart disease.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
 </t>
   </si>
   <si>
-    <t>shr-core-Condition-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-Condition-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -258,116 +258,123 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem</t>
   </si>
   <si>
+    <t>shr-core-Condition-model.clinicalStatus</t>
+  </si>
+  <si>
+    <t>A flag indicating whether the condition is active or inactive, recurring, in remission, or resolved (as of the last update of the Condition).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-ConditionCategoryVS</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.severity</t>
+  </si>
+  <si>
+    <t>Degree of harshness or extent of a symptom, disorder, or condition.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.bodyLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-BodyLocation-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.</t>
+  </si>
+  <si>
+    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.onset[x]</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Age-model {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Range-model {[]} {[]}string {[]} {[]}</t>
+  </si>
+  <si>
+    <t>The beginning or first appearance of a mental or physical disorder.</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.abatement[x]</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Age-model {[]} {[]}boolean {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Range-model {[]} {[]}string {[]} {[]}</t>
+  </si>
+  <si>
+    <t>The end, remission or resolution.</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.author[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
+</t>
+  </si>
+  <si>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
     <t>shr-core-Condition-model.personInformationSource[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model]]}
 </t>
   </si>
   <si>
     <t>The person who provided the information, not necessarily the patient.</t>
   </si>
   <si>
-    <t>shr-core-Condition-model.category</t>
-  </si>
-  <si>
-    <t>The type, kind, or class of this item.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ConditionCategoryVS</t>
-  </si>
-  <si>
-    <t>shr-core-Condition-model.bodyLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-BodyLocation-model {[]} {[]}
+    <t>shr-core-Condition-model.stageInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StageInformation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart.</t>
-  </si>
-  <si>
-    <t>A location or structure in the body, including tissues, regions, cavities, and spaces; for example, right elbow, or left ventricle of the heart.
-The BodyLocation includes code and optional qualifiers of anatomical side or direction. The body location can also be determined from one or more body landmarks.
-If the code for the body location includes laterality and/or anatomical direction, the corresponding attributes might be unnecessary.
-Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how an address structure can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
-  </si>
-  <si>
-    <t>shr-core-Condition-model.clinicalStatus</t>
-  </si>
-  <si>
-    <t>A flag indicating whether the condition is active or inactive, recurring, in remission, or resolved (as of the last update of the Condition).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
-  </si>
-  <si>
-    <t>shr-core-Condition-model.severity</t>
-  </si>
-  <si>
-    <t>Degree of harshness or extent of a symptom, disorder, or condition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0392364
+    <t>The relative advancement in the course of a disease. The StageCode is the summary stage or stage group. StageDetail optionally contains the full staging information.</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Evidence-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-Condition-model.stageInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StageInformation-model {[]} {[]}
+    <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.</t>
+  </si>
+  <si>
+    <t>shr-core-Condition-model.annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The relative advancement in the course of a disease. The StageCode is the summary stage or stage group. StageDetail optionally contains the full staging information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0699749
-</t>
-  </si>
-  <si>
-    <t>shr-core-Condition-model.onset[x]</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Age-model {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Range-model {[]} {[]}string {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The beginning or first appearance of a mental or physical disorder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://loinc.org#85585-8
-</t>
-  </si>
-  <si>
-    <t>shr-core-Condition-model.abatement[x]</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Age-model {[]} {[]}boolean {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Range-model {[]} {[]}string {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The end, remission or resolution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://loinc.org#88878-4
-</t>
-  </si>
-  <si>
-    <t>shr-core-Condition-model.evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Evidence-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.</t>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
   <si>
     <t>shr-core-Condition-model.dateOfDiagnosis</t>
@@ -526,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -545,7 +552,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -559,7 +566,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -938,7 +945,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -970,7 +977,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -993,13 +1000,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1050,7 +1057,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1067,7 +1074,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1090,13 +1097,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1147,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1164,7 +1171,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1190,10 +1197,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1220,11 +1227,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1242,7 +1249,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1259,7 +1266,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1282,13 +1289,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1339,7 +1346,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1356,7 +1363,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1379,10 +1386,10 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>63</v>
@@ -1436,7 +1443,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1750,7 +1757,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>41</v>
@@ -1765,13 +1772,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1798,13 +1805,11 @@
         <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>36</v>
@@ -1825,7 +1830,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>41</v>
@@ -1895,11 +1900,11 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>36</v>
@@ -1934,7 +1939,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1945,7 +1950,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -1957,13 +1962,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1990,13 +1995,11 @@
         <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>36</v>
@@ -2014,13 +2017,13 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -2031,7 +2034,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2039,10 +2042,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>36</v>
@@ -2054,13 +2057,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2087,11 +2090,13 @@
         <v>36</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>36</v>
@@ -2109,13 +2114,13 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>36</v>
@@ -2149,13 +2154,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2182,14 +2187,16 @@
         <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2221,7 +2228,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2244,13 +2251,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2286,7 +2293,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2301,7 +2308,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2318,7 +2325,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2341,13 +2348,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2383,7 +2390,7 @@
         <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -2398,7 +2405,7 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -2415,7 +2422,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2438,13 +2445,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2480,7 +2487,7 @@
         <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>36</v>
@@ -2495,7 +2502,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2512,7 +2519,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2535,13 +2542,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2592,7 +2599,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2609,7 +2616,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2632,13 +2639,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2689,23 +2696,217 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI22" t="s" s="2">
+      <c r="K23" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI22">
+  <autoFilter ref="A1:AI24">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2715,7 +2916,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI23">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
